--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD2BD34-0953-41AD-AB6D-E55FA1EAC8B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5E2AF-E83E-4C02-95E3-DAA61B8E7ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>NRO</t>
   </si>
@@ -358,18 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -397,6 +385,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -941,7 +941,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4068C0-3BD0-4D26-8841-A9C6B564349D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -991,7 +991,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C34275B-9BF3-425E-B4FD-3586ACFF375D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1041,7 +1041,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1695AB6-2B72-4EBE-80A9-EC0DB9DB21E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1091,7 +1091,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A361454-9B22-459F-91A9-EFFA40F3D753}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1141,7 +1141,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E88EF94-2E76-4401-BFD7-2E0C9821C9A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931577B7-3BF9-4D76-9B82-0D75A714C095}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1241,7 +1241,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75505085-D04A-48C4-A038-BA683A63C0B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1291,7 +1291,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C396D2F3-548E-481A-A37E-634215773833}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA1A4CC-BBAC-459D-B0F6-F24D155B7DC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1391,7 +1391,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CFFFF4-810B-435A-86B0-91A06D95406A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7943859F-3938-4383-AC49-1759A137C298}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1491,7 +1491,7 @@
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE26BB80-07DB-4A1E-8344-960D3A9BD46B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1541,7 @@
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC4CD09-DC56-4797-B97E-5C2E15D8E487}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D87AB6-5FFA-44F3-894E-323DCCC61DCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67674E16-4D3C-4D89-98DC-FF88A7EC74D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1691,7 +1691,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9217006-1678-4BE5-BE36-AE6DFC892AD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609D7D3A-E1B7-4C1E-AB1C-D6AE15BA624B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1791,7 +1791,7 @@
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E9226D-6E28-467B-8783-CA75C5B45A20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1841,7 +1841,7 @@
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90606A43-DE71-4CDD-8CBD-B6D479C5246B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1891,7 +1891,7 @@
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4A20E1-5F6C-4F19-A00D-D2D4E057A24D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1941,7 +1941,7 @@
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F2123D-B732-4EE3-9861-F5716A10C78E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1991,7 +1991,7 @@
                   <a14:compatExt spid="_x0000_s2070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D3FF8C-BD19-4F86-B16D-B08B45DA2212}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DFC3E5-1028-4185-BF8A-F86EA9A44DF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2091,7 +2091,7 @@
                   <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0DC9FA-07A7-4374-B784-0BE63247DB7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2141,7 +2141,7 @@
                   <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A857AE5D-86B9-49FF-B26D-217724125AB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2191,7 +2191,7 @@
                   <a14:compatExt spid="_x0000_s2074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAE1856-54DB-4337-B486-B7F8D838F4F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2241,7 +2241,7 @@
                   <a14:compatExt spid="_x0000_s2075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B3CAA6-2603-4FE0-BDB9-2535A304ABD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2291,7 +2291,7 @@
                   <a14:compatExt spid="_x0000_s2076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79829A0D-3A6F-4802-9ED2-023281264437}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2341,7 +2341,7 @@
                   <a14:compatExt spid="_x0000_s2077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D19DC6-DAE6-41D2-BD52-646332754F6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2391,7 +2391,7 @@
                   <a14:compatExt spid="_x0000_s2078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F4BC17-9F84-493C-BCF4-D7D406E7A7C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
                   <a14:compatExt spid="_x0000_s2079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FD16A-8ED5-4476-9F59-450D94000414}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D552A99A-4632-4E96-9D3D-090DD62B77EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2541,7 +2541,7 @@
                   <a14:compatExt spid="_x0000_s2081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B27B87-DDA7-43CB-B917-21091ACF97B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2591,7 +2591,7 @@
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A5F2E0-F066-43C2-9AC5-301A80898634}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2641,7 +2641,7 @@
                   <a14:compatExt spid="_x0000_s2083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83047372-5F9D-4971-B9A1-9FBBD02F7BAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
                   <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64128A2D-27A4-4850-93F0-5EB8A64EFAE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
                   <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBC39EF-74C1-432B-B58D-1D6AF3037098}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2791,7 +2791,7 @@
                   <a14:compatExt spid="_x0000_s2086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25203366-8630-475B-86A8-2AD9303CD7FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2841,7 +2841,7 @@
                   <a14:compatExt spid="_x0000_s2087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD117DD-2B3C-4D8F-98FD-32848A66D55E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2891,7 +2891,7 @@
                   <a14:compatExt spid="_x0000_s2088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8808185-36D0-4B39-9C06-FA82D64AF26D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2941,7 +2941,7 @@
                   <a14:compatExt spid="_x0000_s2089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D17CF-F78D-4923-9DC9-3FDA3E5ADF4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
                   <a14:compatExt spid="_x0000_s2090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8FD455-BFEE-48A2-878D-B77F3E9794A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3041,7 +3041,7 @@
                   <a14:compatExt spid="_x0000_s2091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972822D7-15EE-49A3-9CCB-AA9CE34C29BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3091,7 +3091,7 @@
                   <a14:compatExt spid="_x0000_s2092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB91C9E3-7D28-4CFA-B21B-E40CD616E434}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
                   <a14:compatExt spid="_x0000_s2093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EF14A9-8B23-4C91-9ABD-CC2A292BDF4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3191,7 +3191,7 @@
                   <a14:compatExt spid="_x0000_s2094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA019D8-D07F-4FAE-8529-037F0BD654DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3241,7 +3241,7 @@
                   <a14:compatExt spid="_x0000_s2095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57935949-55F9-4EA3-9D48-0459E7F19C8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3291,7 +3291,7 @@
                   <a14:compatExt spid="_x0000_s2096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131255FF-C81E-415F-B6EB-BBB5C12D8AF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3341,7 +3341,7 @@
                   <a14:compatExt spid="_x0000_s2097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB47655D-9B55-4C55-963B-0637EB8BAB85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3391,7 +3391,7 @@
                   <a14:compatExt spid="_x0000_s2098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59ECCA4-91B8-4F29-9926-77BC3ED0A098}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3441,7 +3441,7 @@
                   <a14:compatExt spid="_x0000_s2099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15424F4-E76B-451E-97E8-BA6B12BD5D65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3491,7 +3491,7 @@
                   <a14:compatExt spid="_x0000_s2100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1BF4D1-F8B6-4F74-9D57-CDEB8523972B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3541,7 +3541,7 @@
                   <a14:compatExt spid="_x0000_s2101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77361D5-A357-4D32-AAAB-493B5E59793C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3591,7 +3591,7 @@
                   <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3643C0D-5C37-4674-82D8-6AC4D43C5032}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3641,7 +3641,7 @@
                   <a14:compatExt spid="_x0000_s2103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CF1B31-4470-4E7A-8F49-14496E271DC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3691,7 +3691,7 @@
                   <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44342AD1-E820-44E6-91FB-2BEF5C3F12A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3741,7 +3741,7 @@
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CEA0C3-F349-4FD6-A5F9-533C5609CB4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3791,7 +3791,7 @@
                   <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D49FAD4-5782-45B6-BD84-CEE6A5E8A67A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3841,7 +3841,7 @@
                   <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553093FB-4DA1-4CC0-A85A-503C1B637FC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3891,7 +3891,7 @@
                   <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD615D3-90E8-4954-B4E6-B51A11531AF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3941,7 +3941,7 @@
                   <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DAB9D2-153F-481C-9129-D12652C66BC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3991,7 +3991,7 @@
                   <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F02C54-62E1-4D40-9F26-0024500CB01F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4041,7 +4041,7 @@
                   <a14:compatExt spid="_x0000_s2111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC93192-04CF-4AA5-8234-A9F40FCCC420}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4091,7 +4091,7 @@
                   <a14:compatExt spid="_x0000_s2112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511F9A4E-32A6-4358-8DBC-49FF555C96A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4141,7 +4141,7 @@
                   <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B72536-85EB-4DE1-90D0-3C4573223CE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4191,7 +4191,7 @@
                   <a14:compatExt spid="_x0000_s2114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F02433-0EF0-4B23-B1FF-FA60759EC379}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4241,7 +4241,7 @@
                   <a14:compatExt spid="_x0000_s2115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB818B8-D9F4-44E0-A9E4-4EC829EC2C24}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4291,7 +4291,7 @@
                   <a14:compatExt spid="_x0000_s2116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D576C7EA-E3DE-42B2-95AA-E42B13407F1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4341,7 +4341,7 @@
                   <a14:compatExt spid="_x0000_s2117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045FF7F7-E994-463A-BAB0-28BCD07434FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4391,7 +4391,7 @@
                   <a14:compatExt spid="_x0000_s2118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA062FE-79D1-4543-8291-F0B3CED273C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4441,7 +4441,7 @@
                   <a14:compatExt spid="_x0000_s2119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC85F4A-26CA-4243-B54F-E262D454472A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4491,7 +4491,7 @@
                   <a14:compatExt spid="_x0000_s2120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF510AD-8B10-42FB-90FE-0325C12631B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4541,7 +4541,7 @@
                   <a14:compatExt spid="_x0000_s2121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFDF5B6-8402-4090-8269-C09480DA775B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4591,7 +4591,7 @@
                   <a14:compatExt spid="_x0000_s2122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E667127D-72C8-403F-83C5-8707180D9532}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4641,7 +4641,7 @@
                   <a14:compatExt spid="_x0000_s2123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF42C31-0B59-4B59-993D-ACEDF1ECA1CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4691,7 +4691,7 @@
                   <a14:compatExt spid="_x0000_s2124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB669A37-316B-4536-A49E-0D59434AAD90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4741,7 +4741,7 @@
                   <a14:compatExt spid="_x0000_s2125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2EA1F0-D9E4-44A5-A467-B2514F0C6F08}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4791,7 +4791,7 @@
                   <a14:compatExt spid="_x0000_s2126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A400D45B-A71A-4681-A96E-CDA0E0983787}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4841,7 +4841,7 @@
                   <a14:compatExt spid="_x0000_s2127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C044C29D-0738-45FD-A7E1-E7A53E724E0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4891,7 +4891,7 @@
                   <a14:compatExt spid="_x0000_s2128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B64799-5230-4382-887B-F48E65789741}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
                   <a14:compatExt spid="_x0000_s2129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FCD7FC-5DB7-49DC-A2EC-7B8E6BB6AFF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4991,7 +4991,7 @@
                   <a14:compatExt spid="_x0000_s2130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D218094-C3E8-48EA-B36E-52EA6D1BFB98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5041,7 +5041,7 @@
                   <a14:compatExt spid="_x0000_s2131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5009298C-C3D0-479A-8776-EAA3EBB98040}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5091,7 +5091,7 @@
                   <a14:compatExt spid="_x0000_s2132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A901480-E185-4937-B922-6103A7DE6AC4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5141,7 +5141,7 @@
                   <a14:compatExt spid="_x0000_s2133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E53C02-2EEE-4EC4-9321-6C9C0352512A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5191,7 +5191,7 @@
                   <a14:compatExt spid="_x0000_s2134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE75BA06-FBBF-4787-9003-688A5AF30B3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5241,7 +5241,7 @@
                   <a14:compatExt spid="_x0000_s2135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE250F15-189D-4F88-9252-C2237A365F6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5291,7 +5291,7 @@
                   <a14:compatExt spid="_x0000_s2136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1D92A9-15FA-4E7E-9AA3-DC04CAB8C714}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5341,7 +5341,7 @@
                   <a14:compatExt spid="_x0000_s2137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8DA42D-940A-4C83-A484-0B77D39464A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5391,7 +5391,7 @@
                   <a14:compatExt spid="_x0000_s2138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A639B-C99F-4A05-8DA8-24FD27CF1891}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5441,7 +5441,7 @@
                   <a14:compatExt spid="_x0000_s2139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676B7DA0-133F-4584-B04F-D7AF93D46FB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5491,7 +5491,7 @@
                   <a14:compatExt spid="_x0000_s2140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5135D08-B857-4BA4-B9A7-5CBDCB8A6CFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5541,7 +5541,7 @@
                   <a14:compatExt spid="_x0000_s2141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02630501-B20E-4C13-9A57-CBE9728C3786}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5591,7 +5591,7 @@
                   <a14:compatExt spid="_x0000_s2142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70FB290-AED9-4F8A-B052-1FC537E4AA48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5641,7 +5641,7 @@
                   <a14:compatExt spid="_x0000_s2143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855677FF-F471-493C-858D-3774B90FD666}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5691,7 +5691,7 @@
                   <a14:compatExt spid="_x0000_s2144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F0CD61-59DE-42FE-83E2-049E91BD5B43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5741,7 +5741,7 @@
                   <a14:compatExt spid="_x0000_s2145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723C0E5-6312-4922-8A6C-BECB965DD470}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5791,7 +5791,7 @@
                   <a14:compatExt spid="_x0000_s2146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BEF1B5-ADA2-4C60-A8F9-F7650179B43E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5841,7 +5841,7 @@
                   <a14:compatExt spid="_x0000_s2147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887DFFF8-E1D0-44B1-9814-F8B3C13F6D79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5891,7 +5891,7 @@
                   <a14:compatExt spid="_x0000_s2148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56F2461-DB76-455A-A1BA-E6ADDDB13F92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5941,7 +5941,7 @@
                   <a14:compatExt spid="_x0000_s2149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FB475C-5012-417A-BD41-6315D71B4217}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5991,7 +5991,7 @@
                   <a14:compatExt spid="_x0000_s2150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314B14DF-F23A-4AF8-89FB-CC3074F21D98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6041,7 +6041,7 @@
                   <a14:compatExt spid="_x0000_s2151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230D5333-DC00-40CF-9453-EFD55EB05396}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6091,7 +6091,7 @@
                   <a14:compatExt spid="_x0000_s2152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA142A4-6625-4A60-9EE1-1D41323999C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6141,7 +6141,7 @@
                   <a14:compatExt spid="_x0000_s2153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA1267B-59D7-49E3-86CE-3128654B40A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6191,7 +6191,7 @@
                   <a14:compatExt spid="_x0000_s2154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B3498D-E7DE-4AFB-9861-94795E111AE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6241,7 +6241,7 @@
                   <a14:compatExt spid="_x0000_s2155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96042BF-7225-47B8-910E-499BB47E3E33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6291,7 +6291,7 @@
                   <a14:compatExt spid="_x0000_s2156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F46232-4CDE-4DDB-823B-F634926420B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6341,7 +6341,7 @@
                   <a14:compatExt spid="_x0000_s2157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663D65EA-D046-462B-9C82-B89E93A827C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6391,7 +6391,7 @@
                   <a14:compatExt spid="_x0000_s2158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063D5765-5632-4BF4-A594-6BDC36E5EB61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6441,7 +6441,7 @@
                   <a14:compatExt spid="_x0000_s2159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB5FC87-56B4-4436-81A2-90D69FF0ADD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6739,7 +6739,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6754,30 +6754,30 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -6792,10 +6792,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11">
         <v>202010</v>
       </c>
@@ -6870,7 +6870,9 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7017,7 +7019,7 @@
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -7031,7 +7033,7 @@
       <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -7045,7 +7047,7 @@
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -7081,255 +7083,255 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7357,16 +7359,2766 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId20" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId20" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId20" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId23" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId23" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId25" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId25" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId26" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId26" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId27" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId27" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId28" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId28" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId29" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId29" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId30" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId30" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId31" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId31" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId32" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId32" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId33" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId33" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId34" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId34" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId35" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId35" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId36" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId36" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId37" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId37" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId38" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId38" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId39" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId39" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId40" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId40" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId41" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId41" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId42" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId42" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId43" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId43" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId44" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId44" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId45" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId45" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId46" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId46" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId47" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId47" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId48" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId48" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId49" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId49" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId50" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId50" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId51" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId51" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId52" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId52" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId53" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId53" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId54" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId54" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId55" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId55" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId56" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId56" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId57" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId57" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId58" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId58" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId59" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId59" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId60" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId60" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId61" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId61" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId62" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId62" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId63" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId63" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId64" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId64" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId66" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId66" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId67" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId67" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId68" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId68" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId69" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId69" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId70" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId70" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId71" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId71" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId72" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId72" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId73" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId73" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId74" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId74" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId75" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId75" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId77" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId77" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId78" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId78" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId79" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId79" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId80" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId80" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId81" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId81" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId82" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId82" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId83" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId83" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId84" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId84" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId85" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId85" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId86" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId86" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId87" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId87" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId88" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId88" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId89" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId89" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId90" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId90" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId91" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId91" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId92" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId92" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId93" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId93" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId94" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId94" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId95" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId95" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId96" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId96" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId97" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId97" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId98" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId98" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId99" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId99" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId100" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId100" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId101" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId101" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId102" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId102" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId103" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId103" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId104" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId104" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId105" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId105" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId106" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId106" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId107" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId107" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId108" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId108" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId109" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId109" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId110" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId110" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId111" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId111" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId112" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId112" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId113" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId113" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId114" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId114" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId115" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId115" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId116" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId116" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId117" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId117" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId118" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId118" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId119" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId119" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId120" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId120" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId121" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId121" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId122" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId122" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId123" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId123" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId124" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId124" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId125" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId125" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId126" name="Control 106">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId126" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId127" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId127" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId128" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId128" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId129" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId129" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId130" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId130" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2159" r:id="rId131" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>18</xdr:row>
@@ -7377,2757 +10129,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2159" r:id="rId20" name="Control 111"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId22" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId22" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId23" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId23" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId24" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId24" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId25" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId25" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId26" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId26" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId27" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId27" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId28" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId28" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId29" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId29" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId30" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId30" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId31" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId31" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId32" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId32" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId33" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId33" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId34" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId34" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId35" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId35" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId36" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId36" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId37" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId37" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId38" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId38" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId39" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId39" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId40" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId40" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId41" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId41" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId42" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId42" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId43" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId43" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId44" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId44" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId45" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId45" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId46" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId46" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId47" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId47" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId48" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId48" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId49" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId49" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId50" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId50" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId51" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId51" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId52" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId52" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId53" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId53" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId54" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId54" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId55" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId55" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId56" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId56" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId57" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId57" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId58" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId58" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId59" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId59" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId60" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId60" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId61" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId61" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId62" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId62" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId63" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId63" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId64" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId64" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId65" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId65" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId66" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId66" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId67" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId67" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId68" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId68" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId69" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId69" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId70" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId70" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId71" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId71" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId72" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId72" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId73" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId73" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId74" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId74" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId75" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId75" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId77" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId77" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId78" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId78" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId79" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId79" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId80" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId80" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId81" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId81" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId82" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId82" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId83" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId83" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId84" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId84" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId85" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId85" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId86" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId86" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId87" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId87" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId88" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId88" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId89" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId89" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId90" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId90" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId91" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId91" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId92" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId92" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId93" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId93" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId94" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId94" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId95" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId95" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId96" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId96" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId97" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId97" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId98" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId98" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId99" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId99" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId100" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId100" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId101" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId101" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId102" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId102" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId103" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId103" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId104" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId104" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId105" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId105" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId106" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId106" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId107" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId107" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId108" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId108" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId109" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId109" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId110" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId110" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId111" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId111" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId112" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId112" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId113" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId113" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId114" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId114" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId115" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId115" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId116" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId116" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId117" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId117" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId118" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId118" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId119" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId119" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId120" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId120" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId121" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId121" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId122" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId122" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId123" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId123" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId124" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId124" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId125" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId125" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId126" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId126" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId127" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId127" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId128" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId128" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId129" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId129" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId130" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId130" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId131" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId131" name="Control 1"/>
+        <control shapeId="2159" r:id="rId131" name="Control 111"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5E2AF-E83E-4C02-95E3-DAA61B8E7ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97B159-8FA8-4786-99D5-F9C92E44D6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>NRO</t>
   </si>
@@ -6739,8 +6739,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,7 +6982,9 @@
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -7359,2777 +7361,2777 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId20" name="Control 1">
+        <control shapeId="2159" r:id="rId20" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2159" r:id="rId20" name="Control 111"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId22" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId22" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId23" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId23" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId24" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId24" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId25" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId25" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId26" name="Control 106">
           <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId26" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId27" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId27" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId28" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId28" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId29" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId29" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId30" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId30" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId31" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId31" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId32" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId32" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId33" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId33" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId34" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId34" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId35" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId35" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId36" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId36" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId37" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId37" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId38" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId38" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId39" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId39" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId40" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId40" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId41" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId41" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId42" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId42" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId43" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId43" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId44" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId44" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId45" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId45" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId46" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId46" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId47" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId47" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId48" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId48" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId49" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId49" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId50" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId50" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId51" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId51" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId52" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId52" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId53" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId53" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId54" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId54" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId55" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId55" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId56" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId56" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId57" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId57" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId58" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId58" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId59" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId59" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId60" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId60" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId61" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId61" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId62" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId62" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId63" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId63" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId64" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId64" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId65" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId65" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId66" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId66" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId67" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId67" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId68" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId68" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId69" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId69" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId70" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId70" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId71" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId71" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId72" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId72" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId73" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId73" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId74" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId74" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId75" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId75" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId77" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId77" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId78" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId78" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId79" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId79" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId80" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId80" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId81" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId81" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId82" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId82" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId83" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId83" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId84" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId84" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId85" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId85" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId86" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId86" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId87" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId87" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId88" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId88" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId89" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId89" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId90" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId90" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId91" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId91" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId92" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId92" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId93" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId93" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId94" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId94" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId95" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId95" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId96" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId96" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId97" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId97" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId98" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId98" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId99" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId99" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId100" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId100" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId101" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId101" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId102" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId102" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId103" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId103" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId104" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId104" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId105" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId105" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId106" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId106" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId107" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId107" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId108" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId108" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId109" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId109" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId110" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId110" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId111" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId111" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId112" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId112" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId113" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId113" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId114" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId114" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId115" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId115" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId116" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId116" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId117" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId117" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId118" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId118" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId119" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId119" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId120" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId120" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId121" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId121" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId122" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId122" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId123" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId123" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId124" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId124" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId125" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId125" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId126" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId126" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId127" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId127" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId128" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId128" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId129" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId129" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId130" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId20" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId130" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId131" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId23" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId23" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId25" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId25" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId26" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId26" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId27" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId27" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId28" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId28" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId29" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId29" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId30" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId32" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId32" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId33" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId33" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId34" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId34" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId35" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId35" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId36" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId36" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId37" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId37" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId38" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId38" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId39" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId39" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId40" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId40" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId41" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId41" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId42" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId42" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId43" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId43" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId44" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId44" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId45" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId45" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId46" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId46" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId47" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId47" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId48" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId48" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId49" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId50" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId50" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId51" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId51" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId52" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId52" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId53" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId53" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId54" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId54" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId55" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId55" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId56" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId56" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId57" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId57" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId58" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId58" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId59" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId59" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId60" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId60" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId61" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId61" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId62" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId62" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId63" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId63" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId64" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId64" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId66" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId66" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId67" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId67" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId68" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId68" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId70" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId70" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId71" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId71" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId72" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId72" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId73" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId73" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId74" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId74" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId75" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId75" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId77" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId77" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId78" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId78" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId79" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId79" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId80" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId80" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId81" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId81" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId82" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId82" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId83" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId83" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId84" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId84" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId85" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId85" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId86" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId86" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId87" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId87" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId88" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId88" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId89" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId89" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId90" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId90" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId91" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId91" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId92" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId92" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId93" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId93" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId94" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId94" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId95" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId95" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId96" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId96" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId97" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId97" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId98" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId98" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId99" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId99" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId100" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId100" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId101" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId101" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId102" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId102" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId103" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId103" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId104" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId104" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId105" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId105" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId106" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId106" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId107" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId107" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId108" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId108" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId109" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId109" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId110" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId110" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId111" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId111" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId112" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId112" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId113" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId113" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId114" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId114" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId115" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId115" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId116" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId116" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId117" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId117" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId118" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId118" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId119" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId119" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId120" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId120" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId121" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId121" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId122" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId122" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId123" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId123" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId124" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId124" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId125" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId125" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId126" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId126" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId127" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId127" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId128" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId128" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId129" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId129" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId130" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId130" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId131" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2159" r:id="rId131" name="Control 111"/>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId131" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97B159-8FA8-4786-99D5-F9C92E44D6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6965B8-042F-4431-A529-4FCB6837C3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -6739,8 +6739,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,7 +7068,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7361,16 +7361,2766 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId20" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId20" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId20" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId23" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId23" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId25" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId25" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId26" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId26" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId27" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId27" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId28" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId28" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId29" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId29" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId30" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId30" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId31" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId31" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId32" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId32" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId33" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId33" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId34" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId34" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId35" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId35" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId36" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId36" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId37" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId37" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId38" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId38" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId39" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId39" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId40" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId40" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId41" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId41" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId42" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId42" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId43" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId43" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId44" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId44" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId45" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId45" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId46" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId46" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId47" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId47" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId48" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId48" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId49" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId49" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId50" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId50" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId51" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId51" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId52" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId52" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId53" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId53" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId54" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId54" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId55" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId55" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId56" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId56" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId57" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId57" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId58" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId58" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId59" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId59" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId60" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId60" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId61" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId61" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId62" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId62" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId63" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId63" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId64" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId64" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId66" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId66" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId67" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId67" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId68" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId68" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId69" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId69" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId70" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId70" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId71" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId71" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId72" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId72" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId73" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId73" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId74" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId74" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId75" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId75" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId77" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId77" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId78" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId78" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId79" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId79" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId80" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId80" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId81" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId81" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId82" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId82" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId83" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId83" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId84" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId84" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId85" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId85" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId86" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId86" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId87" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId87" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId88" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId88" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId89" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId89" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId90" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId90" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId91" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId91" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId92" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId92" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId93" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId93" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId94" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId94" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId95" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId95" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId96" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId96" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId97" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId97" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId98" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId98" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId99" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId99" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId100" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId100" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId101" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId101" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId102" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId102" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId103" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId103" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId104" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId104" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId105" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId105" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId106" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId106" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId107" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId107" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId108" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId108" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId109" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId109" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId110" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId110" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId111" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId111" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId112" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId112" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId113" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId113" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId114" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId114" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId115" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId115" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId116" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId116" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId117" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId117" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId118" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId118" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId119" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId119" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId120" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId120" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId121" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId121" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId122" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId122" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId123" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId123" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId124" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId124" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId125" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId125" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId126" name="Control 106">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId126" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId127" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId127" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId128" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId128" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId129" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId129" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId130" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId130" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2159" r:id="rId131" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>18</xdr:row>
@@ -7381,2757 +10131,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2159" r:id="rId20" name="Control 111"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId22" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId22" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId23" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId23" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId24" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId24" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId25" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId25" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId26" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId26" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId27" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId27" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId28" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId28" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId29" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId29" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId30" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId30" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId31" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId31" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId32" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId32" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId33" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId33" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId34" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId34" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId35" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId35" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId36" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId36" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId37" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId37" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId38" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId38" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId39" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId39" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId40" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId40" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId41" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId41" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId42" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId42" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId43" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId43" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId44" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId44" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId45" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId45" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId46" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId46" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId47" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId47" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId48" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId48" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId49" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId49" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId50" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId50" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId51" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId51" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId52" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId52" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId53" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId53" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId54" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId54" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId55" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId55" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId56" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId56" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId57" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId57" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId58" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId58" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId59" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId59" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId60" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId60" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId61" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId61" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId62" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId62" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId63" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId63" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId64" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId64" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId65" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId65" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId66" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId66" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId67" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId67" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId68" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId68" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId69" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId69" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId70" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId70" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId71" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId71" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId72" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId72" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId73" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId73" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId74" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId74" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId75" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId75" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId77" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId77" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId78" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId78" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId79" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId79" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId80" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId80" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId81" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId81" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId82" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId82" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId83" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId83" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId84" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId84" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId85" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId85" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId86" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId86" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId87" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId87" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId88" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId88" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId89" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId89" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId90" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId90" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId91" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId91" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId92" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId92" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId93" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId93" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId94" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId94" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId95" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId95" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId96" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId96" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId97" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId97" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId98" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId98" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId99" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId99" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId100" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId100" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId101" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId101" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId102" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId102" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId103" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId103" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId104" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId104" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId105" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId105" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId106" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId106" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId107" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId107" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId108" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId108" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId109" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId109" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId110" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId110" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId111" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId111" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId112" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId112" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId113" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId113" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId114" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId114" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId115" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId115" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId116" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId116" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId117" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId117" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId118" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId118" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId119" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId119" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId120" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId120" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId121" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId121" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId122" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId122" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId123" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId123" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId124" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId124" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId125" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId125" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId126" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId126" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId127" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId127" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId128" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId128" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId129" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId129" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId130" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId130" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId131" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId131" name="Control 1"/>
+        <control shapeId="2159" r:id="rId131" name="Control 111"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6965B8-042F-4431-A529-4FCB6837C3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB2B58-C03D-44A2-BAB4-4DE87CF1182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>NRO</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>07.OCT.20</t>
+  </si>
+  <si>
+    <t>MINAYA LEON HARRY</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO GABRIEL ELENA</t>
   </si>
 </sst>
 </file>
@@ -253,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -305,13 +314,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6737,10 +6760,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6845,7 +6868,9 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -6859,7 +6884,9 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -6873,7 +6900,9 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -6887,7 +6916,9 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -6901,7 +6932,9 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -6929,7 +6962,9 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
@@ -6943,7 +6978,9 @@
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
@@ -6957,7 +6994,9 @@
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -6971,7 +7010,9 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -6985,7 +7026,9 @@
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -6999,7 +7042,9 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -7013,7 +7058,9 @@
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -7027,7 +7074,9 @@
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -7041,7 +7090,9 @@
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -7055,9 +7106,27 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7361,2777 +7430,2777 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId20" name="Control 1">
+        <control shapeId="2159" r:id="rId20" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2159" r:id="rId20" name="Control 111"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId22" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId22" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId23" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId23" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId24" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId24" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId25" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId25" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId26" name="Control 106">
           <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId26" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId27" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId27" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId28" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId28" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId29" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId29" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId30" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId30" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId31" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId31" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId32" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId32" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId33" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId33" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId34" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId34" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId35" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId35" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId36" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId36" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId37" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId37" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId38" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId38" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId39" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId39" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId40" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId40" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId41" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId41" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId42" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId42" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId43" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId43" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId44" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId44" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId45" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId45" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId46" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId46" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId47" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId47" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId48" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId48" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId49" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId49" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId50" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId50" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId51" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId51" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId52" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId52" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId53" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId53" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId54" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId54" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId55" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId55" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId56" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId56" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId57" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId57" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId58" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId58" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId59" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId59" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId60" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId60" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId61" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId61" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId62" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId62" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId63" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId63" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId64" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId64" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId65" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId65" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId66" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId66" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId67" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId67" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId68" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId68" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId69" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId69" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId70" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId70" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId71" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId71" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId72" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId72" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId73" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId73" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId74" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId74" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId75" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId75" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId77" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId77" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId78" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId78" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId79" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId79" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId80" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId80" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId81" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId81" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId82" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId82" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId83" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId83" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId84" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId84" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId85" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId85" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId86" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId86" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId87" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId87" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId88" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId88" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId89" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId89" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId90" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId90" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId91" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId91" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId92" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId92" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId93" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId93" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId94" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId94" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId95" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId95" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId96" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId96" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId97" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId97" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId98" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId98" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId99" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId99" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId100" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId100" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId101" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId101" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId102" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId102" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId103" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId103" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId104" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId104" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId105" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId105" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId106" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId106" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId107" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId107" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId108" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId108" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId109" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId109" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId110" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId110" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId111" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId111" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId112" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId112" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId113" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId113" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId114" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId114" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId115" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId115" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId116" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId116" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId117" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId117" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId118" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId118" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId119" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId119" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId120" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId120" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId121" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId121" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId122" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId122" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId123" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId123" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId124" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId124" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId125" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId125" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId126" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId126" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId127" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId127" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId128" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId128" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId129" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId129" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId130" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId20" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId130" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId131" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId23" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId23" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId25" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId25" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId26" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId26" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId27" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId27" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId28" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId28" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId29" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId29" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId30" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId32" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId32" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId33" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId33" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId34" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId34" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId35" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId35" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId36" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId36" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId37" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId37" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId38" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId38" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId39" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId39" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId40" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId40" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId41" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId41" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId42" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId42" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId43" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId43" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId44" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId44" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId45" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId45" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId46" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId46" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId47" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId47" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId48" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId48" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId49" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId50" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId50" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId51" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId51" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId52" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId52" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId53" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId53" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId54" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId54" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId55" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId55" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId56" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId56" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId57" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId57" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId58" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId58" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId59" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId59" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId60" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId60" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId61" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId61" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId62" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId62" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId63" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId63" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId64" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId64" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId66" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId66" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId67" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId67" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId68" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId68" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId70" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId70" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId71" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId71" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId72" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId72" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId73" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId73" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId74" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId74" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId75" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId75" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId77" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId77" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId78" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId78" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId79" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId79" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId80" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId80" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId81" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId81" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId82" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId82" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId83" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId83" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId84" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId84" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId85" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId85" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId86" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId86" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId87" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId87" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId88" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId88" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId89" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId89" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId90" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId90" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId91" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId91" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId92" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId92" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId93" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId93" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId94" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId94" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId95" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId95" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId96" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId96" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId97" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId97" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId98" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId98" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId99" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId99" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId100" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId100" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId101" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId101" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId102" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId102" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId103" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId103" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId104" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId104" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId105" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId105" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId106" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId106" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId107" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId107" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId108" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId108" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId109" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId109" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId110" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId110" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId111" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId111" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId112" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId112" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId113" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId113" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId114" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId114" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId115" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId115" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId116" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId116" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId117" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId117" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId118" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId118" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId119" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId119" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId120" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId120" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId121" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId121" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId122" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId122" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId123" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId123" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId124" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId124" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId125" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId125" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId126" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId126" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId127" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId127" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId128" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId128" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId129" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId129" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId130" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId130" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId131" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2159" r:id="rId131" name="Control 111"/>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId131" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB2B58-C03D-44A2-BAB4-4DE87CF1182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FD804-05D4-4449-98BC-55A9AB9AE2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>NRO</t>
   </si>
@@ -133,20 +133,23 @@
     <t>07.OCT.20</t>
   </si>
   <si>
-    <t>MINAYA LEON HARRY</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>DEL CASTILLO GABRIEL ELENA</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MINAYA LEON HARRY (Nuevo)</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO GABRIEL ELENA (Nuevo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +227,14 @@
       <color rgb="FF868BA1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -262,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,24 +325,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +406,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6763,7 +6766,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A10" sqref="A10:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6777,30 +6780,30 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -6815,10 +6818,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="11">
         <v>202010</v>
       </c>
@@ -6858,15 +6861,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>10</v>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -6874,154 +6877,154 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>18</v>
+      <c r="B15" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -7032,12 +7035,12 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -7048,12 +7051,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -7064,12 +7067,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>24</v>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -7080,12 +7083,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>25</v>
+      <c r="B24" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -7096,12 +7099,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -7112,23 +7115,42 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="26" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>17</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:F27">
+    <sortCondition ref="B10:B27"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:B6"/>
@@ -7137,7 +7159,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FD804-05D4-4449-98BC-55A9AB9AE2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330F57-6017-43E1-B9B0-310296F159B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>NRO</t>
   </si>
@@ -139,17 +139,17 @@
     <t>F</t>
   </si>
   <si>
-    <t>MINAYA LEON HARRY (Nuevo)</t>
+    <t>MINAYA LEON HARRY</t>
   </si>
   <si>
-    <t>DEL CASTILLO GABRIEL ELENA (Nuevo)</t>
+    <t>DEL CASTILLO GABRIEL ELENA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +226,6 @@
       <sz val="11"/>
       <color rgb="FF868BA1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -331,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,9 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +412,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6766,44 +6764,45 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -6818,10 +6817,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11">
         <v>202010</v>
       </c>
@@ -6865,7 +6864,7 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6874,14 +6873,16 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6890,14 +6891,16 @@
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -6906,14 +6909,16 @@
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6922,14 +6927,16 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6938,14 +6945,16 @@
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6954,7 +6963,9 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,7 +6994,9 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -7000,7 +7013,9 @@
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7016,7 +7031,9 @@
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7049,9 @@
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,7 +7067,9 @@
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7101,9 @@
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7119,9 @@
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,7 +7137,9 @@
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7155,9 @@
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,7 +7173,9 @@
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
   </sheetData>
@@ -7452,16 +7483,2766 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId20" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId20" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId20" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId23" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId23" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId25" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId25" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId26" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId26" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId27" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId27" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId28" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId28" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId29" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId29" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId30" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId30" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId31" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId31" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId32" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId32" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId33" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId33" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId34" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId34" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId35" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId35" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId36" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId36" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId37" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId37" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId38" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId38" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId39" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId39" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId40" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId40" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId41" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId41" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId42" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId42" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId43" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId43" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId44" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId44" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId45" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId45" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId46" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId46" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId47" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId47" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId48" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId48" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId49" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId49" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId50" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId50" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId51" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId51" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId52" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId52" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId53" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId53" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId54" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId54" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId55" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId55" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId56" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId56" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId57" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId57" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId58" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId58" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId59" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId59" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId60" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId60" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId61" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId61" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId62" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId62" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId63" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId63" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId64" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId64" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId66" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId66" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId67" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId67" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId68" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId68" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId69" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId69" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId70" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId70" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId71" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId71" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId72" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId72" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId73" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId73" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId74" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId74" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId75" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId75" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId77" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId77" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId78" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId78" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId79" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId79" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId80" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId80" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId81" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId81" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId82" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId82" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId83" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId83" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId84" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId84" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId85" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId85" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId86" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId86" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId87" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId87" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId88" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId88" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId89" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId89" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId90" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId90" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId91" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId91" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId92" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId92" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId93" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId93" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId94" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId94" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId95" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId95" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId96" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId96" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId97" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId97" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId98" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId98" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId99" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId99" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId100" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId100" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId101" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId101" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId102" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId102" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId103" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId103" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId104" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId104" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId105" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId105" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId106" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId106" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId107" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId107" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId108" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId108" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId109" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId109" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId110" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId110" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId111" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId111" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId112" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId112" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId113" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId113" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId114" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId114" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId115" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId115" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId116" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId116" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId117" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId117" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId118" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId118" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId119" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId119" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId120" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId120" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId121" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId121" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId122" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId122" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId123" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId123" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId124" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId124" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId125" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId125" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId126" name="Control 106">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId126" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId127" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId127" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId128" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId128" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId129" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId129" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId130" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId130" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2159" r:id="rId131" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>18</xdr:row>
@@ -7472,2757 +10253,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2159" r:id="rId20" name="Control 111"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId22" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId22" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId23" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId23" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId24" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId24" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId25" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId25" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId26" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId26" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId27" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId27" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId28" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId28" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId29" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId29" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId30" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId30" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId31" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId31" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId32" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId32" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId33" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId33" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId34" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId34" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId35" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId35" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId36" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId36" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId37" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId37" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId38" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId38" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId39" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId39" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId40" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId40" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId41" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId41" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId42" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId42" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId43" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId43" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId44" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId44" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId45" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId45" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId46" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId46" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId47" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId47" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId48" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId48" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId49" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId49" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId50" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId50" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId51" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId51" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId52" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId52" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId53" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId53" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId54" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId54" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId55" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId55" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId56" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId56" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId57" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId57" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId58" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId58" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId59" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId59" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId60" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId60" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId61" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId61" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId62" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId62" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId63" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId63" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId64" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId64" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId65" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId65" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId66" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId66" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId67" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId67" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId68" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId68" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId69" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId69" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId70" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId70" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId71" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId71" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId72" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId72" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId73" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId73" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId74" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId74" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId75" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId75" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId77" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId77" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId78" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId78" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId79" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId79" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId80" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId80" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId81" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId81" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId82" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId82" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId83" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId83" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId84" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId84" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId85" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId85" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId86" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId86" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId87" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId87" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId88" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId88" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId89" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId89" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId90" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId90" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId91" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId91" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId92" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId92" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId93" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId93" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId94" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId94" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId95" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId95" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId96" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId96" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId97" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId97" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId98" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId98" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId99" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId99" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId100" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId100" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId101" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId101" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId102" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId102" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId103" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId103" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId104" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId104" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId105" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId105" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId106" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId106" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId107" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId107" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId108" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId108" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId109" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId109" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId110" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId110" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId111" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId111" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId112" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId112" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId113" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId113" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId114" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId114" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId115" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId115" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId116" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId116" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId117" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId117" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId118" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId118" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId119" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId119" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId120" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId120" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId121" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId121" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId122" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId122" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId123" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId123" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId124" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId124" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId125" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId125" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId126" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId126" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId127" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId127" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId128" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId128" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId129" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId129" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId130" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId130" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId131" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId131" name="Control 1"/>
+        <control shapeId="2159" r:id="rId131" name="Control 111"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330F57-6017-43E1-B9B0-310296F159B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2896FB-6407-40F7-B853-D1A5DEBF07C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>NRO</t>
   </si>
@@ -401,6 +401,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,15 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6764,7 +6764,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6779,30 +6779,30 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -6817,10 +6817,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="11">
         <v>202010</v>
       </c>
@@ -6864,7 +6864,7 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6882,7 +6882,7 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6900,7 +6900,7 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -6918,7 +6918,7 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6936,7 +6936,7 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6954,7 +6954,7 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7085,7 +7085,9 @@
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7483,2777 +7485,2777 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId20" name="Control 1">
+        <control shapeId="2159" r:id="rId20" name="Control 111">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2159" r:id="rId20" name="Control 111"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2158" r:id="rId22" name="Control 110">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2158" r:id="rId22" name="Control 110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2157" r:id="rId23" name="Control 109">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2157" r:id="rId23" name="Control 109"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2156" r:id="rId24" name="Control 108">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2156" r:id="rId24" name="Control 108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2155" r:id="rId25" name="Control 107">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2155" r:id="rId25" name="Control 107"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2154" r:id="rId26" name="Control 106">
           <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2154" r:id="rId26" name="Control 106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2153" r:id="rId27" name="Control 105">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2153" r:id="rId27" name="Control 105"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2152" r:id="rId28" name="Control 104">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2152" r:id="rId28" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2151" r:id="rId29" name="Control 103">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2151" r:id="rId29" name="Control 103"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2150" r:id="rId30" name="Control 102">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2150" r:id="rId30" name="Control 102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2149" r:id="rId31" name="Control 101">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2149" r:id="rId31" name="Control 101"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2148" r:id="rId32" name="Control 100">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2148" r:id="rId32" name="Control 100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2147" r:id="rId33" name="Control 99">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2147" r:id="rId33" name="Control 99"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId34" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId34" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId35" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId35" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId36" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId36" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId37" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId37" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId38" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId38" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId39" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId39" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId40" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId40" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId41" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId41" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId42" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId42" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId43" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId43" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId44" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId44" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId45" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId45" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId46" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId46" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId47" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId47" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId48" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId48" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId49" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId49" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId50" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId50" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId51" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId51" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId52" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId52" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId53" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId53" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId54" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId54" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId55" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId55" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId56" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId56" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId57" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId57" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId58" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId58" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId59" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId59" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId60" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId60" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId61" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId61" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId62" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId62" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId63" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId63" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId64" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId64" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId65" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId65" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId66" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId66" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId67" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId67" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId68" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId68" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId69" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId69" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId70" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId70" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId71" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId71" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId72" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId72" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId73" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId73" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId74" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId74" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId75" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId75" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId76" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId76" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId77" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId77" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId78" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId78" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId79" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId79" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId80" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId80" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId81" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId81" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId82" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId82" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId83" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId83" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId84" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId84" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId85" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId85" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId86" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId86" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId87" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId87" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId88" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId88" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId89" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId89" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId90" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId90" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId91" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId91" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId92" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId92" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId93" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId93" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId94" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId94" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId95" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId95" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId96" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId96" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId97" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId97" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId98" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId98" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId99" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId99" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId100" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId100" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId101" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId101" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId102" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId102" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId103" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId103" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId104" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId104" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId105" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId105" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId106" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId106" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId107" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId107" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId108" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId108" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId109" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId109" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId110" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId110" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId111" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId111" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId112" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId112" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId113" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId113" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId114" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId114" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId115" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId115" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId116" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId116" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId117" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId117" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId118" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId118" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId119" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId119" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId120" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId120" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId121" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId121" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId122" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId122" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId123" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId123" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId124" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId124" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId125" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId125" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId126" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId126" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId127" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId127" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId128" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId128" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId129" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId129" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId130" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId20" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId130" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId131" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId23" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId23" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId25" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId25" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId26" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId26" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId27" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId27" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId28" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId28" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId29" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId29" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId30" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId30" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId31" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId31" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId32" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId32" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId33" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId33" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId34" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId34" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId35" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId35" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId36" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId36" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId37" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId37" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId38" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId38" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId39" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId39" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId40" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId40" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId41" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId41" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId42" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId42" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId43" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId43" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId44" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId44" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId45" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId45" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId46" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId46" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId47" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId47" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId48" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId48" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId49" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId50" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId50" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId51" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId51" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId52" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId52" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId53" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId53" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId54" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId54" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId55" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId55" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId56" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId56" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId57" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId57" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId58" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId58" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId59" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId59" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId60" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId60" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId61" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId61" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId62" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId62" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId63" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId63" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId64" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId64" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId66" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId66" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId67" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId67" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId68" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId68" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId70" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId70" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId71" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId71" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId72" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId72" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId73" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId73" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId74" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId74" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId75" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId75" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId76" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId76" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId77" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId77" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId78" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId78" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId79" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId79" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId80" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId80" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId81" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId81" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId82" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId82" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId83" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId83" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId84" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId84" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId85" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId85" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId86" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId86" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId87" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId87" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId88" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId88" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId89" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId89" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId90" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId90" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId91" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId91" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId92" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId92" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId93" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId93" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId94" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId94" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId95" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId95" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId96" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId96" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId97" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId97" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId98" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId98" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId99" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId99" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId100" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId100" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId101" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId101" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId102" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId102" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId103" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId103" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId104" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId104" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId105" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId105" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId106" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId106" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId107" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId107" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId108" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId108" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId109" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId109" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId110" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId110" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId111" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId111" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId112" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId112" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId113" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId113" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId114" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId114" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId115" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId115" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId116" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId116" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId117" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId117" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId118" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId118" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2147" r:id="rId119" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2147" r:id="rId119" name="Control 99"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2148" r:id="rId120" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2148" r:id="rId120" name="Control 100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2149" r:id="rId121" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2149" r:id="rId121" name="Control 101"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2150" r:id="rId122" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2150" r:id="rId122" name="Control 102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2151" r:id="rId123" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2151" r:id="rId123" name="Control 103"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2152" r:id="rId124" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2152" r:id="rId124" name="Control 104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2153" r:id="rId125" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2153" r:id="rId125" name="Control 105"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2154" r:id="rId126" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2154" r:id="rId126" name="Control 106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2155" r:id="rId127" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2155" r:id="rId127" name="Control 107"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2156" r:id="rId128" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2156" r:id="rId128" name="Control 108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2157" r:id="rId129" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2157" r:id="rId129" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2158" r:id="rId130" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2158" r:id="rId130" name="Control 110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2159" r:id="rId131" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2159" r:id="rId131" name="Control 111"/>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId131" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\JAVA\WEB\JAVA_WEB_2020_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2896FB-6407-40F7-B853-D1A5DEBF07C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74ECC64-FDFE-481F-B22D-08C8C4DC32F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
   <si>
     <t>NRO</t>
   </si>
@@ -6764,15 +6764,15 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6876,7 +6876,9 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -6894,7 +6896,9 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -6912,7 +6916,9 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -6930,7 +6936,9 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -6948,7 +6956,9 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -6966,7 +6976,9 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -6981,8 +6993,12 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -6997,7 +7013,9 @@
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7034,7 +7052,9 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -7088,7 +7108,9 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -7106,7 +7128,9 @@
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -7124,7 +7148,9 @@
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -7142,7 +7168,9 @@
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -7160,7 +7188,9 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -7178,7 +7208,9 @@
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:F27">
